--- a/11_KS_연도별_보고서작성/Data/Input/KS_Vendor_Information_Template.xlsx
+++ b/11_KS_연도별_보고서작성/Data/Input/KS_Vendor_Information_Template.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\김대경\Desktop\실무자과정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\RPA_Example\11_KS_연도별_보고서작성\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D441263-7353-4C9A-8739-CCD9C42FC2EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93365CA-0371-430B-93B6-BAF8FDA1A7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6600" yWindow="-20700" windowWidth="17910" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KS_Vendor_Information_Template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -680,29 +680,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1136,428 +1130,566 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H50"/>
+  <dimension ref="B2:G50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.796875" style="2"/>
-    <col min="3" max="4" width="15.69921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.69921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.69921875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="68.296875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="8.75" style="3"/>
+    <col min="3" max="4" width="15.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="3" customWidth="1"/>
+    <col min="7" max="7" width="68.25" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="32.4" x14ac:dyDescent="0.4">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:7" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="2:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="5" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="1"/>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="str">
+        <f>IF(ISBLANK(C5), "", ROW()-4)</f>
+        <v/>
+      </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="1"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="str">
+        <f t="shared" ref="B6:B50" si="0">IF(ISBLANK(C6), "", ROW()-4)</f>
+        <v/>
+      </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
